--- a/data/environment/국내 항공량 통계/가공 data/국내 항공운항 통계-최종.xlsx
+++ b/data/environment/국내 항공량 통계/가공 data/국내 항공운항 통계-최종.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathx\Desktop\Cayley\항공운항 통계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6C049-D7AF-4A0E-962C-17C283AA104A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170490C2-DAC9-435E-9964-764939A47152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{35161228-4D0D-4955-9277-A978174C0494}"/>
   </bookViews>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
